--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Desktop\PyPMT\PyPMT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{110F363B-43EA-4594-A1AF-8D1A51C4E8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0104788-4962-4154-895F-90B8A9463AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
+    <workbookView xWindow="80" yWindow="1170" windowWidth="14400" windowHeight="7360" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>Function</t>
   </si>
@@ -59,9 +59,6 @@
     <t>ps211</t>
   </si>
   <si>
-    <t>ps2grid</t>
-  </si>
-  <si>
     <t>uv2vxvy</t>
   </si>
   <si>
@@ -210,6 +207,15 @@
   </si>
   <si>
     <t>find2drange</t>
+  </si>
+  <si>
+    <t>psgrid</t>
+  </si>
+  <si>
+    <t>C2xyz</t>
+  </si>
+  <si>
+    <t>antbounds</t>
   </si>
 </sst>
 </file>
@@ -561,9 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF2D08-B31E-4D2B-9726-DE919E241E43}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -587,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -595,7 +603,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -603,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -611,292 +619,314 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
         <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0104788-4962-4154-895F-90B8A9463AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE647FA-7C9E-4957-80CF-4F3A76F09E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="1170" windowWidth="14400" windowHeight="7360" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
   </bookViews>
@@ -65,12 +65,6 @@
     <t>vxvy2uv</t>
   </si>
   <si>
-    <t>wgs2g104c</t>
-  </si>
-  <si>
-    <t>g104c2wgs</t>
-  </si>
-  <si>
     <t>inpsquad</t>
   </si>
   <si>
@@ -216,6 +210,12 @@
   </si>
   <si>
     <t>antbounds</t>
+  </si>
+  <si>
+    <t>Tested the test cases in matlab, everything matches</t>
+  </si>
+  <si>
+    <t>need to test next</t>
   </si>
 </sst>
 </file>
@@ -567,16 +567,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF2D08-B31E-4D2B-9726-DE919E241E43}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -595,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -603,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -611,7 +612,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -619,15 +623,18 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -640,7 +647,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -682,40 +689,43 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -726,9 +736,6 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -759,47 +766,50 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -811,14 +821,14 @@
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>38</v>
       </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
@@ -829,9 +839,6 @@
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
@@ -857,17 +864,17 @@
       <c r="A45" t="s">
         <v>45</v>
       </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
         <v>48</v>
       </c>
     </row>
@@ -875,58 +882,48 @@
       <c r="A48" t="s">
         <v>49</v>
       </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE647FA-7C9E-4957-80CF-4F3A76F09E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C1BA6E-C378-4A5B-B304-E54EFA03E221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="1170" windowWidth="14400" windowHeight="7360" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>Function</t>
   </si>
@@ -215,20 +215,31 @@
     <t>Tested the test cases in matlab, everything matches</t>
   </si>
   <si>
-    <t>need to test next</t>
+    <t>Fixed and tested in MATLAB</t>
+  </si>
+  <si>
+    <t>Need help… can't figure it out (Blake)</t>
+  </si>
+  <si>
+    <t>does not support rhumb line distances, as the MATLAB function does</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1B1642"/>
+      <name val="DM Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,8 +262,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF2D08-B31E-4D2B-9726-DE919E241E43}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,6 +671,12 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -693,7 +711,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -701,7 +719,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -709,60 +727,63 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -770,7 +791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -778,12 +799,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -928,5 +949,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C1BA6E-C378-4A5B-B304-E54EFA03E221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E58C16-FFEF-4839-B3AD-FAEFBC879451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="1170" windowWidth="14400" windowHeight="7360" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
+    <workbookView xWindow="80" yWindow="1170" windowWidth="14940" windowHeight="8110" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Function</t>
   </si>
@@ -222,13 +222,22 @@
   </si>
   <si>
     <t>does not support rhumb line distances, as the MATLAB function does</t>
+  </si>
+  <si>
+    <t>Done??</t>
+  </si>
+  <si>
+    <t>in pypmt… had difficulty checking the test cases in matlab</t>
+  </si>
+  <si>
+    <t>same issue as pathdistps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +247,17 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF1B1642"/>
-      <name val="DM Sans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,9 +280,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF2D08-B31E-4D2B-9726-DE919E241E43}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,6 +685,9 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -674,7 +696,7 @@
       <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -682,15 +704,30 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E58C16-FFEF-4839-B3AD-FAEFBC879451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F136FA87-B25C-4487-B708-FB534F972445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="1170" windowWidth="14940" windowHeight="8110" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>Function</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>same issue as pathdistps</t>
+  </si>
+  <si>
+    <t>needs clip_outliers and InterX to run (included in PyPMT)</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF2D08-B31E-4D2B-9726-DE919E241E43}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -734,6 +737,12 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F136FA87-B25C-4487-B708-FB534F972445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C92D9C7-6156-4213-9D4E-9DD341077C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="1170" windowWidth="14940" windowHeight="8110" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>Function</t>
   </si>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF2D08-B31E-4D2B-9726-DE919E241E43}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -818,6 +818,9 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C92D9C7-6156-4213-9D4E-9DD341077C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FEA9B5-4C10-40B3-9E9D-91E1CD2E5833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="1170" windowWidth="14940" windowHeight="8110" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>Function</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>needs clip_outliers and InterX to run (included in PyPMT)</t>
+  </si>
+  <si>
+    <t>bedmachine test (needs interpolation functions we don't have)</t>
+  </si>
+  <si>
+    <t>tested on bedmachine plot just for fun (works)</t>
   </si>
 </sst>
 </file>
@@ -601,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF2D08-B31E-4D2B-9726-DE919E241E43}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -757,7 +763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -765,7 +771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -773,17 +779,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -793,28 +799,31 @@
       <c r="C21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -822,17 +831,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -840,7 +849,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -848,17 +857,20 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FEA9B5-4C10-40B3-9E9D-91E1CD2E5833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F155231-FAEC-4776-A2D5-7D52296EAE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="1170" windowWidth="14940" windowHeight="8110" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
+    <workbookView xWindow="4410" yWindow="970" windowWidth="14940" windowHeight="8110" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>Function</t>
   </si>
@@ -240,6 +240,33 @@
   </si>
   <si>
     <t>tested on bedmachine plot just for fun (works)</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Needs scarlabel and scalebarps</t>
+  </si>
+  <si>
+    <t>needs mapzoomps to test</t>
+  </si>
+  <si>
+    <t>bedmap2 for testing</t>
+  </si>
+  <si>
+    <t>antmap, bedmap2, pcolorm for testing</t>
+  </si>
+  <si>
+    <t>pcolorps, graticuleps for testing</t>
+  </si>
+  <si>
+    <t>plotps for testing</t>
+  </si>
+  <si>
+    <t>needs patch, uistack for testing</t>
+  </si>
+  <si>
+    <t>needs antmap, pcolorm, bedmap2, quivermc, quiver for testing</t>
   </si>
 </sst>
 </file>
@@ -609,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF2D08-B31E-4D2B-9726-DE919E241E43}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,9 +645,10 @@
     <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -639,7 +667,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -647,7 +675,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -658,7 +686,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -668,8 +696,11 @@
       <c r="C5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -677,12 +708,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -690,7 +727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -698,7 +735,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -709,7 +746,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -719,16 +756,22 @@
       <c r="C11" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -738,8 +781,11 @@
       <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -749,13 +795,16 @@
       <c r="C14" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -770,6 +819,9 @@
       <c r="B17" t="s">
         <v>51</v>
       </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -806,6 +858,12 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F155231-FAEC-4776-A2D5-7D52296EAE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886195EB-063C-4BD9-9723-12BBC31BFC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="970" windowWidth="14940" windowHeight="8110" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
+    <workbookView xWindow="4260" yWindow="970" windowWidth="14940" windowHeight="8110" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>Function</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>needs antmap, pcolorm, bedmap2, quivermc, quiver for testing</t>
+  </si>
+  <si>
+    <t>Have locally (blake), need to get in bedmap data to teste</t>
+  </si>
+  <si>
+    <t>test/debug</t>
   </si>
 </sst>
 </file>
@@ -637,7 +643,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -880,6 +886,12 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886195EB-063C-4BD9-9723-12BBC31BFC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D37074-4DC5-492E-A57E-7B96C68F2D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="970" windowWidth="14940" windowHeight="8110" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>Function</t>
   </si>
@@ -269,10 +269,13 @@
     <t>needs antmap, pcolorm, bedmap2, quivermc, quiver for testing</t>
   </si>
   <si>
-    <t>Have locally (blake), need to get in bedmap data to teste</t>
-  </si>
-  <si>
-    <t>test/debug</t>
+    <t>bedmap testing</t>
+  </si>
+  <si>
+    <t>Done (finally)</t>
+  </si>
+  <si>
+    <t>need to get in bedmap data to test</t>
   </si>
 </sst>
 </file>
@@ -642,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF2D08-B31E-4D2B-9726-DE919E241E43}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -876,6 +879,12 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -890,7 +899,7 @@
         <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D37074-4DC5-492E-A57E-7B96C68F2D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EAA6D7-36C8-4B15-B91B-A45C4D04B94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="970" windowWidth="14940" windowHeight="8110" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
   <si>
     <t>Function</t>
   </si>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF2D08-B31E-4D2B-9726-DE919E241E43}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,6 +964,9 @@
       <c r="A34" t="s">
         <v>34</v>
       </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EAA6D7-36C8-4B15-B91B-A45C4D04B94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A22331-B1A5-43B0-98B1-0C3098A4E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="970" windowWidth="14940" windowHeight="8110" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>Function</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>need to get in bedmap data to test</t>
+  </si>
+  <si>
+    <t>bedmachine tests, need pathdistps for testing</t>
+  </si>
+  <si>
+    <t>On hold</t>
   </si>
 </sst>
 </file>
@@ -646,7 +652,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -844,10 +850,19 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A22331-B1A5-43B0-98B1-0C3098A4E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0274BFC6-A53E-4CC9-A419-D3D4AF9936BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="970" windowWidth="14940" windowHeight="8110" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
   <si>
     <t>Function</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>On hold</t>
+  </si>
+  <si>
+    <t>InterX (subfunction)</t>
+  </si>
+  <si>
+    <t>clip_outliers (subfunction)</t>
   </si>
 </sst>
 </file>
@@ -649,15 +655,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF2D08-B31E-4D2B-9726-DE919E241E43}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
@@ -905,6 +911,9 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -1056,6 +1065,9 @@
       <c r="A47" t="s">
         <v>48</v>
       </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
@@ -1102,6 +1114,22 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
         <v>51</v>
       </c>
     </row>

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0274BFC6-A53E-4CC9-A419-D3D4AF9936BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C16C93-43AC-47C8-8A33-DC2EA8DAB214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <t>Function</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>clip_outliers (subfunction)</t>
+  </si>
+  <si>
+    <t>90% done</t>
+  </si>
+  <si>
+    <t>Debugging issues with scalebar going off the plot</t>
   </si>
 </sst>
 </file>
@@ -657,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF2D08-B31E-4D2B-9726-DE919E241E43}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -976,7 +982,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -984,7 +990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -992,7 +998,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1000,17 +1006,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1018,37 +1024,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1056,20 +1062,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C16C93-43AC-47C8-8A33-DC2EA8DAB214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08B71D4-F60E-46E8-B70B-5D3E93C094A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
+    <workbookView xWindow="3910" yWindow="850" windowWidth="14940" windowHeight="8110" xr2:uid="{1B02746F-768C-4042-A572-64DD1F8AF2F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>Function</t>
   </si>
@@ -294,6 +295,9 @@
   </si>
   <si>
     <t>Debugging issues with scalebar going off the plot</t>
+  </si>
+  <si>
+    <t>need to tweak slightly to work w/ antbounds</t>
   </si>
 </sst>
 </file>
@@ -663,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF2D08-B31E-4D2B-9726-DE919E241E43}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -944,6 +948,12 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F8F3FA-9A9F-4794-A51D-99B32F7B4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
   <si>
     <t>Function</t>
   </si>
@@ -218,9 +224,6 @@
   </si>
   <si>
     <t>scarlabel</t>
-  </si>
-  <si>
-    <t>needs to be tested/edited more</t>
   </si>
   <si>
     <t>colorbarps</t>
@@ -289,8 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,7 +303,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF1b1642"/>
+      <color rgb="FF1B1642"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -339,29 +341,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -372,10 +371,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -413,71 +412,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,7 +504,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -528,11 +527,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -541,13 +540,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -557,7 +556,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -566,7 +565,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -575,7 +574,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -583,10 +582,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -651,603 +650,508 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="4" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="33.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="44.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="54.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1" t="s">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1" t="s">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1" t="s">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1" t="s">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="1" t="s">
+      <c r="B47" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="1" t="s">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="1" t="s">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="1" t="s">
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="1" t="s">
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="1" t="s">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F8F3FA-9A9F-4794-A51D-99B32F7B4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A072A8C-0B2B-4E83-8265-1889037D430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="0" windowWidth="14940" windowHeight="8110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>Function</t>
   </si>
@@ -241,12 +241,6 @@
     <t>inset_unproj</t>
   </si>
   <si>
-    <t>antmap</t>
-  </si>
-  <si>
-    <t>needs scarlabel to test</t>
-  </si>
-  <si>
     <t>mapzoom</t>
   </si>
   <si>
@@ -287,6 +281,9 @@
   </si>
   <si>
     <t>clip_outliers (subfunction)</t>
+  </si>
+  <si>
+    <t>having trouble with interactive functions</t>
   </si>
 </sst>
 </file>
@@ -654,10 +651,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1043,6 +1040,9 @@
       <c r="A41" t="s">
         <v>71</v>
       </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
@@ -1053,45 +1053,42 @@
       <c r="A43" t="s">
         <v>73</v>
       </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
         <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
@@ -1099,7 +1096,7 @@
     </row>
     <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -1107,7 +1104,7 @@
     </row>
     <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
@@ -1115,7 +1112,7 @@
     </row>
     <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -1123,7 +1120,7 @@
     </row>
     <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -1131,7 +1128,7 @@
     </row>
     <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
@@ -1139,17 +1136,9 @@
     </row>
     <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" t="s">
         <v>4</v>
       </c>
     </row>

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A072A8C-0B2B-4E83-8265-1889037D430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D7F587-29A1-4F0D-AE84-346AE80F5F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="0" windowWidth="14940" windowHeight="8110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
   <si>
     <t>Function</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>having trouble with interactive functions</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -653,8 +656,8 @@
   </sheetPr>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -948,6 +951,9 @@
       <c r="A28" t="s">
         <v>57</v>
       </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -968,6 +974,9 @@
     <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D7F587-29A1-4F0D-AE84-346AE80F5F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9B25B8-DADE-4B28-811D-43F367403BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="0" windowWidth="14940" windowHeight="8110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="94">
   <si>
     <t>Function</t>
   </si>
@@ -287,6 +287,21 @@
   </si>
   <si>
     <t>in progress</t>
+  </si>
+  <si>
+    <t>Plot Compatible</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>fixing issues</t>
   </si>
 </sst>
 </file>
@@ -654,21 +669,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" customWidth="1"/>
+    <col min="4" max="4" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,26 +692,35 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -703,10 +728,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -714,13 +742,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -728,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -736,21 +767,27 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -758,114 +795,123 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -873,43 +919,43 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>41</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -917,18 +963,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -936,26 +982,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>57</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -963,7 +1012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -971,7 +1020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -979,18 +1028,18 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>61</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -998,36 +1047,45 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>64</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>65</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>67</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -1035,17 +1093,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -1053,17 +1114,20 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -1071,23 +1135,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>76</v>
       </c>
       <c r="B46" t="s">
         <v>77</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -1095,31 +1159,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>80</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>81</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>82</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -1127,7 +1200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -1135,7 +1208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -1143,12 +1216,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>86</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F7F7B6-4CB2-4B72-9100-5536D9A284B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="4260" yWindow="0" windowWidth="14940" windowHeight="8110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>Function</t>
   </si>
@@ -199,9 +205,6 @@
     <t>scatterps</t>
   </si>
   <si>
-    <t>fixing issues</t>
-  </si>
-  <si>
     <t>contourps</t>
   </si>
   <si>
@@ -299,13 +302,18 @@
   </si>
   <si>
     <t>clip_outliers (subfunction)</t>
+  </si>
+  <si>
+    <t>need to adapt</t>
+  </si>
+  <si>
+    <t>rip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -316,7 +324,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF1b1642"/>
+      <color rgb="FF1B1642"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -354,29 +362,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -387,10 +392,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -428,71 +433,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,7 +525,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -543,11 +548,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -556,13 +561,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -572,7 +577,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -581,7 +586,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -590,7 +595,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -598,10 +603,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -666,692 +671,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="4" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="33.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="33.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="44.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="54.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3" t="s">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1" t="s">
+      <c r="B31" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1" t="s">
+      <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="1" t="s">
+      <c r="B41" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="1" t="s">
+      <c r="B46" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="D46" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="1" t="s">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="1" t="s">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F7F7B6-4CB2-4B72-9100-5536D9A284B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E638DC-CDA3-4D55-BC7B-605A4CFAFA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="0" windowWidth="14940" windowHeight="8110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
     <t>need to adapt</t>
   </si>
   <si>
-    <t>rip</t>
+    <t>Problems</t>
   </si>
 </sst>
 </file>
@@ -677,8 +677,8 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -761,7 +761,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -992,7 +992,7 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
         <v>58</v>

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E638DC-CDA3-4D55-BC7B-605A4CFAFA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9671D2E-218A-4EB5-B7FC-90C7B0AB1046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t>Function</t>
   </si>
@@ -184,12 +184,6 @@
     <t>pcolorps</t>
   </si>
   <si>
-    <t>Done (finally)</t>
-  </si>
-  <si>
-    <t>need to get in bedmap data to test</t>
-  </si>
-  <si>
     <t>surfps</t>
   </si>
   <si>
@@ -308,6 +302,9 @@
   </si>
   <si>
     <t>Problems</t>
+  </si>
+  <si>
+    <t>takes like 7-8 minutes though (for complete bedmachine data)</t>
   </si>
 </sst>
 </file>
@@ -677,15 +674,16 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -761,7 +759,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -973,15 +971,15 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -989,32 +987,32 @@
     </row>
     <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
         <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1022,7 +1020,7 @@
     </row>
     <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1030,26 +1028,26 @@
     </row>
     <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -1057,45 +1055,45 @@
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1103,41 +1101,41 @@
     </row>
     <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -1145,23 +1143,23 @@
     </row>
     <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
         <v>83</v>
-      </c>
-      <c r="B46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1169,7 +1167,7 @@
     </row>
     <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -1180,7 +1178,7 @@
     </row>
     <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1191,7 +1189,7 @@
     </row>
     <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -1202,7 +1200,7 @@
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -1210,7 +1208,7 @@
     </row>
     <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1218,7 +1216,7 @@
     </row>
     <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -1226,7 +1224,7 @@
     </row>
     <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9671D2E-218A-4EB5-B7FC-90C7B0AB1046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0EB875-0B09-4F43-99FC-B63DBED458C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>Function</t>
   </si>
@@ -52,15 +52,9 @@
     <t>ll2ps</t>
   </si>
   <si>
-    <t>Fixed and tested in MATLAB</t>
-  </si>
-  <si>
     <t>ps211</t>
   </si>
   <si>
-    <t>Tested the test cases in matlab, everything matches</t>
-  </si>
-  <si>
     <t>antmap, bedmap2, pcolorm for testing</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t>patchps</t>
   </si>
   <si>
-    <t>need to tweak slightly to work w/ antbounds</t>
-  </si>
-  <si>
     <t>works with antbounds</t>
   </si>
   <si>
@@ -208,15 +199,9 @@
     <t>quiverps</t>
   </si>
   <si>
-    <t>in progress</t>
-  </si>
-  <si>
     <t>textps</t>
   </si>
   <si>
-    <t>tested on bedmachine plot just for fun (works)</t>
-  </si>
-  <si>
     <t>graticuleps</t>
   </si>
   <si>
@@ -292,19 +277,25 @@
     <t>antbounds</t>
   </si>
   <si>
-    <t>InterX (subfunction)</t>
-  </si>
-  <si>
     <t>clip_outliers (subfunction)</t>
   </si>
   <si>
-    <t>need to adapt</t>
-  </si>
-  <si>
     <t>Problems</t>
   </si>
   <si>
     <t>takes like 7-8 minutes though (for complete bedmachine data)</t>
+  </si>
+  <si>
+    <t>greenland_bounds</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>bedmachine_data</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
 </sst>
 </file>
@@ -672,10 +663,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,55 +724,49 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -792,84 +777,102 @@
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -880,7 +883,7 @@
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -889,12 +892,12 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -905,114 +908,126 @@
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
         <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1020,7 +1035,7 @@
     </row>
     <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1028,72 +1043,75 @@
     </row>
     <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
-        <v>64</v>
+      <c r="C32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1101,41 +1119,41 @@
     </row>
     <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -1143,31 +1161,34 @@
     </row>
     <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -1178,7 +1199,7 @@
     </row>
     <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1189,7 +1210,7 @@
     </row>
     <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -1200,7 +1221,7 @@
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -1208,28 +1229,45 @@
     </row>
     <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s">
         <v>6</v>
       </c>
     </row>

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0EB875-0B09-4F43-99FC-B63DBED458C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3C8F37-9935-431C-A26A-9C2E551B70BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="96">
   <si>
     <t>Function</t>
   </si>
@@ -296,6 +296,18 @@
   </si>
   <si>
     <t>unknown</t>
+  </si>
+  <si>
+    <t>need its_live and measures velocity data first</t>
+  </si>
+  <si>
+    <t>think it makes more sense to have mapzoom first</t>
+  </si>
+  <si>
+    <t>interactive (mouse clicks)</t>
+  </si>
+  <si>
+    <t>looks right??</t>
   </si>
 </sst>
 </file>
@@ -665,15 +677,15 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54" bestFit="1" customWidth="1"/>
   </cols>
@@ -933,7 +945,7 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
@@ -1070,6 +1082,9 @@
       <c r="B33" t="s">
         <v>42</v>
       </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
@@ -1129,6 +1144,9 @@
       <c r="A40" t="s">
         <v>69</v>
       </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
@@ -1141,6 +1159,9 @@
     <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/PyPMT_progress.xlsx
+++ b/PyPMT_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\OneDrive\Documents\GitHub\PyPMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3C8F37-9935-431C-A26A-9C2E551B70BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD7371B-1D53-4D72-8F1E-FD71D732E6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="0" windowWidth="14940" windowHeight="8110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
   <si>
     <t>Function</t>
   </si>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>clip_outliers (subfunction)</t>
-  </si>
-  <si>
-    <t>Problems</t>
   </si>
   <si>
     <t>takes like 7-8 minutes though (for complete bedmachine data)</t>
@@ -677,8 +674,8 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -756,7 +753,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -945,7 +942,7 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
@@ -1001,7 +998,7 @@
         <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1061,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1083,7 +1080,7 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1145,7 +1142,7 @@
         <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1161,7 +1158,7 @@
         <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1204,7 +1201,7 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1261,10 +1258,10 @@
     </row>
     <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
         <v>88</v>
-      </c>
-      <c r="B53" t="s">
-        <v>89</v>
       </c>
       <c r="C53" t="s">
         <v>62</v>
@@ -1283,10 +1280,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
